--- a/data/trans_bre/P25_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>12,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>9,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>44,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>57,86%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,97%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 25,74</t>
+          <t>-9,2; 33,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 15,76</t>
+          <t>-9,45; 27,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 34,21</t>
+          <t>-17,7; 25,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 125,02</t>
+          <t>-20,61; 26,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 78,98</t>
+          <t>-22,76; 211,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 121,79</t>
+          <t>-38,76; 303,44</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-42,58; 143,19</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-51,61; 190,57</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>-2,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>-12,03%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21,46%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 6,87</t>
+          <t>-8,99; 7,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 8,14</t>
+          <t>-11,17; 5,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 11,98</t>
+          <t>-6,97; 9,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 50,08</t>
+          <t>-5,03; 12,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 66,14</t>
+          <t>-38,44; 51,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 99,09</t>
+          <t>-47,12; 44,81</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-32,51; 71,52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-23,43; 94,94</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,72</t>
+          <t>-8,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,52</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,94</t>
+          <t>-8,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-60,5%</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-57,93%</t>
+          <t>-58,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-60,97%</t>
+          <t>-53,7%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-59,51%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-25,29%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,98; -3,61</t>
+          <t>-15,79; -2,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,78; -1,79</t>
+          <t>-13,04; -0,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,93; -3,96</t>
+          <t>-16,16; -1,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-80,4; -29,21</t>
+          <t>-11,95; 6,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-78,55; -17,3</t>
+          <t>-81,91; -11,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-79,88; -29,16</t>
+          <t>-83,15; 6,47</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-83,27; -14,59</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-62,2; 56,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 3,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 3,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 9,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 18,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,86; 22,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 58,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-2,36</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,42</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,94</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-12,79%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-15,57%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-15,96%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-7,99; 3,34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 3,04</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-8,36; 3,18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-5,5; 6,87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-37,15; 21,58</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-38,96; 26,51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-39,18; 20,35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-26,01; 46,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12,41</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,96</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>44,46%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>57,86%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,43%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-1,97%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>12.66962551910556</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>10.2732771103621</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.040029625714081</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.193781184698317</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.4864564299612602</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.6183145746819489</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1424189220348104</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.04760949210443258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,2; 33,3</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,45; 27,58</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-17,7; 25,73</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-20,61; 26,65</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-22,76; 211,51</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-38,76; 303,44</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-42,58; 143,19</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-51,61; 190,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.799765314449327</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.910728416535835</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.59448479566676</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-18.51744351581058</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1987148878355239</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3450637479367317</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4010862980740723</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4977398397329488</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>32.30306257424765</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>28.41868191076085</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>27.06333165941896</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>27.90681896970068</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.122071397757162</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.122663694781318</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.573925326966062</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.117960560633898</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-2,83%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-12,03%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>21,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,99; 7,37</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,17; 5,76</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,97; 9,38</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 12,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-38,44; 51,92</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-47,12; 44,81</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-32,51; 71,52</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-23,43; 94,94</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.874248202268605</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.981594788508636</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5519718882086105</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.208199550652963</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.09926783085088375</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1102605621988152</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.03123373298722463</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1882989947358782</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-8,54</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,11</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-8,68</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,96</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-58,91%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-53,7%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-59,51%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-25,29%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-10.7446724976313</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-10.6617947583922</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.182277821951261</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.267582226317895</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4496776865337659</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4641326749369581</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3293733988436142</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2541569241976846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,79; -2,07</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,04; -0,65</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-16,16; -1,91</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-11,95; 6,53</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-81,91; -11,62</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-83,15; 6,47</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-83,27; -14,59</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-62,2; 56,86</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.981035775474123</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.027142325879048</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.96416252014882</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.37985414066245</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.4157219322521991</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.4460698645705221</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.7222281681216822</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.9076463603648457</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-9.579604927257131</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.784882670596641</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-9.041880589256865</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-4.785009959797486</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.634233841609176</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5340315604304328</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.6255887902562839</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3037913019044688</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-19.49665246557724</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.36485535299863</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-16.62440211289296</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-13.02654071589425</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.8598023615639588</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.8249329718533697</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8443269172849548</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6509873525803815</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-2.977025307666038</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.4936160075192787</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-2.506584923537167</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.767988045579575</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-0.2163882622301932</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.08737690413206355</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.2088854560226115</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.4767036448100852</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,36</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,42</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,94</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-12,79%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-15,57%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-15,96%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,99; 3,34</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; 3,04</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,36; 3,18</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,5; 6,87</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-37,15; 21,58</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-38,96; 26,51</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-39,18; 20,35</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-26,01; 46,78</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-3.205798378480684</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.020406057895771</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.603852392448602</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1663599709018776</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1739842175746</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1333540929593262</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1443215325276452</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.009274844983008743</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.236157348501326</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.560539504802336</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.867233162987137</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.650313331685566</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.4206272251403133</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3696522256289642</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3831069891834295</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2699442096889423</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.407143471154121</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.6203957626669</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.559186921269485</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.43709198590503</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1620299561118178</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2979880886140921</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2370112251433728</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4362298854916772</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
